--- a/biology/Zoologie/Ananeon_howardensis/Ananeon_howardensis.xlsx
+++ b/biology/Zoologie/Ananeon_howardensis/Ananeon_howardensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ananeon howardensis, unique représentant du genre Ananeon, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ananeon howardensis, unique représentant du genre Ananeon, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Territoire du Nord en Australie[1]. Elle se rencontre vers Darwin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Territoire du Nord en Australie. Elle se rencontre vers Darwin.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,4 mm de long sur 1,3 mm et l'abdomen 1,9 mm de long et la carapace de la femelle paratype mesure 1,7 mm de long sur 1,5 mm et l'abdomen 2,0 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,4 mm de long sur 1,3 mm et l'abdomen 1,9 mm de long et la carapace de la femelle paratype mesure 1,7 mm de long sur 1,5 mm et l'abdomen 2,0 mm de long.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de howard et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Howard Springs.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Richardson, 2013 : New unidentate jumping spider genera (Araneae: Salticidae) from Australia. Zootaxa, no 3716 (3), p. 460-474.</t>
         </is>
